--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -217,7 +217,7 @@
     <t xml:space="preserve">Auto_CD007</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">1000.01</t>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -214,7 +214,7 @@
     <t xml:space="preserve">streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto_CD007</t>
+    <t xml:space="preserve">Auto_CssD007</t>
   </si>
   <si>
     <t xml:space="preserve">2023-09-01</t>
@@ -385,7 +385,7 @@
   <dimension ref="A1:BM1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE031E7-0CBA-42A6-8619-F7D0C3E08892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D5F3E-4E02-4105-8EBA-A6E2D2A21B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D5F3E-4E02-4105-8EBA-A6E2D2A21B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D9B65-118D-4B7D-9707-F4030C053CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D9B65-118D-4B7D-9707-F4030C053CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF88BDB-8FB0-49C2-8452-DE5B4134F314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>contractNo</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:BS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +914,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>66</v>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF88BDB-8FB0-49C2-8452-DE5B4134F314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADD204F-B394-4CDC-869C-6520458DDB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -908,13 +908,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>66</v>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B34CB8-BC57-425D-8C41-F4C68644A5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D05588-91CD-41F4-920C-E7342782E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="3225" windowHeight="2925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -273,7 +273,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D05588-91CD-41F4-920C-E7342782E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1914AE69-781D-44E7-B438-56F48A2F5ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -337,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +377,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -483,7 +483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A443A-ED2C-4976-A2B0-F34CA7F7D45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D19AE4-6962-419F-AB0D-218B1FB041A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -337,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,7 +377,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -483,7 +483,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -637,7 +637,7 @@
   <dimension ref="A1:BS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D19AE4-6962-419F-AB0D-218B1FB041A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71271EFB-608F-4E3C-A316-29717706E1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>contractNo</t>
   </si>
@@ -273,7 +273,13 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -636,8 +642,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2:BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,7 +914,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>65</v>
@@ -990,6 +996,12 @@
       </c>
       <c r="AZ2" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>80</v>

--- a/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 4/Auto_GeStamp_TSCD_TC4_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71271EFB-608F-4E3C-A316-29717706E1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049A4AF3-3044-4DEE-A5AF-8CDECD7CF013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2:BC2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
